--- a/Person References.xlsx
+++ b/Person References.xlsx
@@ -1,75 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="34400" windowHeight="20940" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8595" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Description</t>
+    <t>The method getId() Person</t>
   </si>
   <si>
-    <t>Resource</t>
+    <t>The method getName() Person</t>
   </si>
   <si>
-    <t>Path</t>
+    <t>GETTERS</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Cannot cast from edu.stanford.hakan.aim3api.base.Person to edu.stanford_usp.shared.aimapi.Person</t>
-  </si>
-  <si>
-    <t>Aim.java</t>
-  </si>
-  <si>
-    <t>/epad/src/main/java/edu/stanford_usp/shared/aimapi</t>
-  </si>
-  <si>
-    <t>line 1106</t>
-  </si>
-  <si>
-    <t>Java Problem</t>
-  </si>
-  <si>
-    <t>The method getId() is undefined for the type Person</t>
-  </si>
-  <si>
-    <t>AIMExportWidget.java</t>
-  </si>
-  <si>
-    <t>/epad/src/main/java/edu/stanford_usp/client/widget</t>
-  </si>
-  <si>
-    <t>line 178</t>
-  </si>
-  <si>
-    <t>line 179</t>
-  </si>
-  <si>
-    <t>The method getName() is undefined for the type Person</t>
-  </si>
-  <si>
-    <t>line 180</t>
+    <t>Used in Epad
+(Y/N)</t>
   </si>
 </sst>
 </file>
@@ -78,20 +37,39 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
-      <sz val="10"/>
-      <name val="Verdana"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Verdana"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -106,14 +84,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -260,16 +245,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -391,170 +380,72 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:2" ht="30">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <sortState ref="A1:A6">
+    <sortCondition descending="1" ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>